--- a/public/cohort/fileExcel/xlsxUIT/OPEN/MA_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/MA_OPEN.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -913,6 +913,33 @@
     <t>mavo?</t>
   </si>
   <si>
+    <t xml:space="preserve">H6: Pluriforme samenleving, H2: Jongeren en H9: Criminaliteit </t>
+  </si>
+  <si>
+    <t>ML1/K/1, ML1/K/3, ML1/K/5</t>
+  </si>
+  <si>
+    <t>H3: Politiek, H4: Nederland en de wereld en H5: Media</t>
+  </si>
+  <si>
+    <t>Woordenboek niet toegestaan</t>
+  </si>
+  <si>
+    <t>ML1/K/6, ML1/K/7</t>
+  </si>
+  <si>
+    <t>H1: Wat is maatschappijleer? en H8: Werk</t>
+  </si>
+  <si>
+    <t>ML1/K/2, ML1/K/5</t>
+  </si>
+  <si>
+    <t>H8: Werk en H7: Relaties</t>
+  </si>
+  <si>
+    <t>ML1/K/5, ML1/K/4</t>
+  </si>
+  <si>
     <t xml:space="preserve">H4: Pluriforme samenleving, H7: Werk en H8: Criminaliteit </t>
   </si>
   <si>
@@ -920,12 +947,6 @@
   </si>
   <si>
     <t>H3: Politiek, H5: Nederland en de wereld en H6: Media</t>
-  </si>
-  <si>
-    <t>Woordenboek niet toegestaan</t>
-  </si>
-  <si>
-    <t>ML1/K/6, ML1/K/7</t>
   </si>
   <si>
     <t xml:space="preserve">H1: Wat is maatschappijleer? en H2: Jongeren </t>
@@ -2165,7 +2186,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2519,7 +2540,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
+        <v>44385.633321759</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4932,7 +4953,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
+        <v>44385.633321759</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5408,7 +5429,7 @@
         <v>75</v>
       </c>
       <c r="L19" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M19" s="27" t="s">
         <v>8</v>
@@ -5417,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>76</v>
@@ -5576,26 +5597,40 @@
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1107</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="45"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="45">
+        <v>1</v>
+      </c>
       <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="45"/>
+        <v>7</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="45">
+        <v>100</v>
+      </c>
       <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="46">
+        <v>1</v>
+      </c>
       <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>80</v>
+      </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7202,7 +7237,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
+        <v>44385.633321759</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7574,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I18" s="45">
         <v>1</v>
@@ -7594,7 +7629,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7666,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -7687,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>76</v>
@@ -7762,7 +7797,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -7782,7 +7817,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -9118,7 +9153,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2">
         <v>718</v>
@@ -9128,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -9148,7 +9183,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -9226,7 +9261,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -9246,7 +9281,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -9324,7 +9359,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -9345,10 +9380,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -9427,7 +9462,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -9447,7 +9482,7 @@
         <v>11</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -9516,7 +9551,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
+        <v>44385.633321759</v>
       </c>
       <c r="D10" s="2">
         <v>722</v>
@@ -9526,7 +9561,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -9547,10 +9582,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -9629,7 +9664,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I11" s="45">
         <v>1</v>
@@ -9649,7 +9684,7 @@
         <v>11</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -11422,7 +11457,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2">
         <v>154</v>
@@ -11432,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11452,7 +11487,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11530,7 +11565,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -11550,7 +11585,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11628,7 +11663,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11649,10 +11684,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11731,7 +11766,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -11751,7 +11786,7 @@
         <v>11</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -11820,7 +11855,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
+        <v>44385.633321759</v>
       </c>
       <c r="D10" s="2">
         <v>158</v>
@@ -11830,7 +11865,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -11851,10 +11886,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -11933,7 +11968,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I11" s="45">
         <v>1</v>
@@ -11953,7 +11988,7 @@
         <v>11</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -13726,7 +13761,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14080,7 +14115,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
+        <v>44385.633321759</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -15962,7 +15997,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16316,7 +16351,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
+        <v>44385.633321759</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16688,7 +16723,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I18" s="45">
         <v>1</v>
@@ -16708,7 +16743,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -16780,7 +16815,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -16800,7 +16835,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -16872,7 +16907,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -16893,10 +16928,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -16968,7 +17003,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -16988,7 +17023,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -17060,7 +17095,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I22" s="45">
         <v>1</v>
@@ -17081,10 +17116,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -17156,7 +17191,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -17176,7 +17211,7 @@
         <v>11</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -18268,7 +18303,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -18622,7 +18657,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
+        <v>44385.633321759</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -18994,7 +19029,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I18" s="45">
         <v>1</v>
@@ -19014,7 +19049,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -19086,7 +19121,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -19106,7 +19141,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -19178,7 +19213,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -19199,10 +19234,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -19274,7 +19309,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -19294,7 +19329,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -19366,7 +19401,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I22" s="45">
         <v>1</v>
@@ -19387,10 +19422,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -19462,7 +19497,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -19482,7 +19517,7 @@
         <v>11</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/MA_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/MA_OPEN.xlsx
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633321759</v>
+        <v>44387.766053241</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633321759</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633321759</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633321759</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2">
         <v>722</v>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633321759</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2">
         <v>158</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633321759</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16351,7 +16351,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633321759</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -18657,7 +18657,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633321759</v>
+        <v>44387.766053241</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
